--- a/Program/Other/LM056_底稿_表14-1、14-2_會計部申報表.xlsx
+++ b/Program/Other/LM056_底稿_表14-1、14-2_會計部申報表.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2076" windowWidth="12000" windowHeight="6348"/>
+    <workbookView xWindow="0" yWindow="2076" windowWidth="12000" windowHeight="6348" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="表14-1" sheetId="37" r:id="rId1"/>
     <sheet name="表14-2" sheetId="32" r:id="rId2"/>
-    <sheet name="INPUT2-3" sheetId="36" state="hidden" r:id="rId3"/>
+    <sheet name="YYYMM" sheetId="38" r:id="rId3"/>
+    <sheet name="INPUT2-3" sheetId="36" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'表14-1'!$S$6:$S$62</definedName>
@@ -96,7 +97,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2080" uniqueCount="1064">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2088" uniqueCount="1071">
   <si>
     <t>(3)=(2)/(1)</t>
   </si>
@@ -3338,6 +3339,34 @@
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>戶號</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶名</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>聯貸項目</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>利關人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>**</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>一億元以上</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -3355,7 +3384,7 @@
     <numFmt numFmtId="182" formatCode="0.00%;\-0.00%;#"/>
     <numFmt numFmtId="183" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -3504,6 +3533,12 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="18">
@@ -4422,7 +4457,7 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="784">
+  <cellXfs count="785">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6680,13 +6715,31 @@
     <xf numFmtId="183" fontId="0" fillId="0" borderId="62" xfId="12" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -6697,23 +6750,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6729,17 +6773,63 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -6801,61 +6891,7 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -7181,8 +7217,8 @@
   </sheetPr>
   <dimension ref="A1:AI305"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="75" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="W6" sqref="W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -7296,82 +7332,82 @@
       <c r="AI2" s="696"/>
     </row>
     <row r="3" spans="1:35" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="739" t="s">
+      <c r="A3" s="729" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="745" t="s">
+      <c r="B3" s="730" t="s">
         <v>141</v>
       </c>
-      <c r="C3" s="746"/>
-      <c r="D3" s="746"/>
-      <c r="E3" s="747"/>
-      <c r="F3" s="739" t="s">
+      <c r="C3" s="731"/>
+      <c r="D3" s="731"/>
+      <c r="E3" s="732"/>
+      <c r="F3" s="729" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="739" t="s">
+      <c r="G3" s="729" t="s">
         <v>143</v>
       </c>
-      <c r="H3" s="730" t="s">
+      <c r="H3" s="734" t="s">
         <v>144</v>
       </c>
-      <c r="I3" s="730" t="s">
+      <c r="I3" s="734" t="s">
         <v>145</v>
       </c>
-      <c r="J3" s="730" t="s">
+      <c r="J3" s="734" t="s">
         <v>146</v>
       </c>
-      <c r="K3" s="735" t="s">
+      <c r="K3" s="740" t="s">
         <v>1058</v>
       </c>
-      <c r="L3" s="730" t="s">
+      <c r="L3" s="734" t="s">
         <v>147</v>
       </c>
-      <c r="M3" s="730" t="s">
+      <c r="M3" s="734" t="s">
         <v>148</v>
       </c>
-      <c r="N3" s="741"/>
-      <c r="O3" s="741"/>
-      <c r="P3" s="741"/>
-      <c r="Q3" s="741"/>
-      <c r="R3" s="730" t="s">
+      <c r="N3" s="744"/>
+      <c r="O3" s="744"/>
+      <c r="P3" s="744"/>
+      <c r="Q3" s="744"/>
+      <c r="R3" s="734" t="s">
         <v>917</v>
       </c>
-      <c r="S3" s="743" t="s">
+      <c r="S3" s="746" t="s">
         <v>149</v>
       </c>
-      <c r="T3" s="737" t="s">
+      <c r="T3" s="733" t="s">
         <v>918</v>
       </c>
-      <c r="U3" s="737" t="s">
+      <c r="U3" s="733" t="s">
         <v>150</v>
       </c>
-      <c r="V3" s="739" t="s">
+      <c r="V3" s="729" t="s">
         <v>151</v>
       </c>
-      <c r="W3" s="732" t="s">
+      <c r="W3" s="738" t="s">
         <v>1059</v>
       </c>
-      <c r="X3" s="739" t="s">
+      <c r="X3" s="729" t="s">
         <v>152</v>
       </c>
-      <c r="Y3" s="740"/>
-      <c r="Z3" s="740"/>
-      <c r="AA3" s="740"/>
-      <c r="AB3" s="740"/>
-      <c r="AC3" s="740"/>
-      <c r="AD3" s="739" t="s">
+      <c r="Y3" s="743"/>
+      <c r="Z3" s="743"/>
+      <c r="AA3" s="743"/>
+      <c r="AB3" s="743"/>
+      <c r="AC3" s="743"/>
+      <c r="AD3" s="729" t="s">
         <v>153</v>
       </c>
-      <c r="AE3" s="739"/>
-      <c r="AF3" s="739"/>
-      <c r="AG3" s="739"/>
-      <c r="AH3" s="739"/>
-      <c r="AI3" s="730" t="s">
+      <c r="AE3" s="729"/>
+      <c r="AF3" s="729"/>
+      <c r="AG3" s="729"/>
+      <c r="AH3" s="729"/>
+      <c r="AI3" s="734" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="739"/>
+      <c r="A4" s="729"/>
       <c r="B4" s="699" t="s">
         <v>919</v>
       </c>
@@ -7384,17 +7420,17 @@
       <c r="E4" s="699" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="737"/>
-      <c r="G4" s="737"/>
-      <c r="H4" s="734" t="s">
+      <c r="F4" s="733"/>
+      <c r="G4" s="733"/>
+      <c r="H4" s="735" t="s">
         <v>432</v>
       </c>
-      <c r="I4" s="734" t="s">
+      <c r="I4" s="735" t="s">
         <v>432</v>
       </c>
-      <c r="J4" s="734"/>
-      <c r="K4" s="736"/>
-      <c r="L4" s="734"/>
+      <c r="J4" s="735"/>
+      <c r="K4" s="741"/>
+      <c r="L4" s="735"/>
       <c r="M4" s="700" t="s">
         <v>156</v>
       </c>
@@ -7410,12 +7446,12 @@
       <c r="Q4" s="700" t="s">
         <v>160</v>
       </c>
-      <c r="R4" s="734"/>
-      <c r="S4" s="744"/>
-      <c r="T4" s="738"/>
-      <c r="U4" s="742"/>
-      <c r="V4" s="735"/>
-      <c r="W4" s="733"/>
+      <c r="R4" s="735"/>
+      <c r="S4" s="747"/>
+      <c r="T4" s="742"/>
+      <c r="U4" s="745"/>
+      <c r="V4" s="740"/>
+      <c r="W4" s="739"/>
       <c r="X4" s="701" t="s">
         <v>919</v>
       </c>
@@ -7449,10 +7485,10 @@
       <c r="AH4" s="699" t="s">
         <v>170</v>
       </c>
-      <c r="AI4" s="731"/>
+      <c r="AI4" s="737"/>
     </row>
     <row r="5" spans="1:35" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="739"/>
+      <c r="A5" s="729"/>
       <c r="B5" s="702" t="s">
         <v>197</v>
       </c>
@@ -12071,42 +12107,42 @@
       <c r="A120" s="711">
         <v>4</v>
       </c>
-      <c r="B120" s="729" t="s">
+      <c r="B120" s="736" t="s">
         <v>299</v>
       </c>
-      <c r="C120" s="729"/>
-      <c r="D120" s="729"/>
-      <c r="E120" s="729"/>
-      <c r="F120" s="729"/>
-      <c r="G120" s="729"/>
-      <c r="H120" s="729"/>
-      <c r="I120" s="729"/>
-      <c r="J120" s="729"/>
-      <c r="K120" s="729"/>
-      <c r="L120" s="729"/>
-      <c r="M120" s="729"/>
-      <c r="N120" s="729"/>
-      <c r="O120" s="729"/>
-      <c r="P120" s="729"/>
-      <c r="Q120" s="729"/>
-      <c r="R120" s="729"/>
-      <c r="S120" s="729"/>
-      <c r="T120" s="729"/>
-      <c r="U120" s="729"/>
-      <c r="V120" s="729"/>
-      <c r="W120" s="729"/>
-      <c r="X120" s="729"/>
-      <c r="Y120" s="729"/>
-      <c r="Z120" s="729"/>
-      <c r="AA120" s="729"/>
-      <c r="AB120" s="729"/>
-      <c r="AC120" s="729"/>
-      <c r="AD120" s="729"/>
-      <c r="AE120" s="729"/>
-      <c r="AF120" s="729"/>
-      <c r="AG120" s="729"/>
-      <c r="AH120" s="729"/>
-      <c r="AI120" s="729"/>
+      <c r="C120" s="736"/>
+      <c r="D120" s="736"/>
+      <c r="E120" s="736"/>
+      <c r="F120" s="736"/>
+      <c r="G120" s="736"/>
+      <c r="H120" s="736"/>
+      <c r="I120" s="736"/>
+      <c r="J120" s="736"/>
+      <c r="K120" s="736"/>
+      <c r="L120" s="736"/>
+      <c r="M120" s="736"/>
+      <c r="N120" s="736"/>
+      <c r="O120" s="736"/>
+      <c r="P120" s="736"/>
+      <c r="Q120" s="736"/>
+      <c r="R120" s="736"/>
+      <c r="S120" s="736"/>
+      <c r="T120" s="736"/>
+      <c r="U120" s="736"/>
+      <c r="V120" s="736"/>
+      <c r="W120" s="736"/>
+      <c r="X120" s="736"/>
+      <c r="Y120" s="736"/>
+      <c r="Z120" s="736"/>
+      <c r="AA120" s="736"/>
+      <c r="AB120" s="736"/>
+      <c r="AC120" s="736"/>
+      <c r="AD120" s="736"/>
+      <c r="AE120" s="736"/>
+      <c r="AF120" s="736"/>
+      <c r="AG120" s="736"/>
+      <c r="AH120" s="736"/>
+      <c r="AI120" s="736"/>
     </row>
     <row r="121" spans="1:35" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="711">
@@ -12522,42 +12558,42 @@
       <c r="A131" s="711">
         <v>15</v>
       </c>
-      <c r="B131" s="729" t="s">
+      <c r="B131" s="736" t="s">
         <v>1056</v>
       </c>
-      <c r="C131" s="729"/>
-      <c r="D131" s="729"/>
-      <c r="E131" s="729"/>
-      <c r="F131" s="729"/>
-      <c r="G131" s="729"/>
-      <c r="H131" s="729"/>
-      <c r="I131" s="729"/>
-      <c r="J131" s="729"/>
-      <c r="K131" s="729"/>
-      <c r="L131" s="729"/>
-      <c r="M131" s="729"/>
-      <c r="N131" s="729"/>
-      <c r="O131" s="729"/>
-      <c r="P131" s="729"/>
-      <c r="Q131" s="729"/>
-      <c r="R131" s="729"/>
-      <c r="S131" s="729"/>
-      <c r="T131" s="729"/>
-      <c r="U131" s="729"/>
-      <c r="V131" s="729"/>
-      <c r="W131" s="729"/>
-      <c r="X131" s="729"/>
-      <c r="Y131" s="729"/>
-      <c r="Z131" s="729"/>
-      <c r="AA131" s="729"/>
-      <c r="AB131" s="729"/>
-      <c r="AC131" s="729"/>
-      <c r="AD131" s="729"/>
-      <c r="AE131" s="729"/>
-      <c r="AF131" s="729"/>
-      <c r="AG131" s="729"/>
-      <c r="AH131" s="729"/>
-      <c r="AI131" s="729"/>
+      <c r="C131" s="736"/>
+      <c r="D131" s="736"/>
+      <c r="E131" s="736"/>
+      <c r="F131" s="736"/>
+      <c r="G131" s="736"/>
+      <c r="H131" s="736"/>
+      <c r="I131" s="736"/>
+      <c r="J131" s="736"/>
+      <c r="K131" s="736"/>
+      <c r="L131" s="736"/>
+      <c r="M131" s="736"/>
+      <c r="N131" s="736"/>
+      <c r="O131" s="736"/>
+      <c r="P131" s="736"/>
+      <c r="Q131" s="736"/>
+      <c r="R131" s="736"/>
+      <c r="S131" s="736"/>
+      <c r="T131" s="736"/>
+      <c r="U131" s="736"/>
+      <c r="V131" s="736"/>
+      <c r="W131" s="736"/>
+      <c r="X131" s="736"/>
+      <c r="Y131" s="736"/>
+      <c r="Z131" s="736"/>
+      <c r="AA131" s="736"/>
+      <c r="AB131" s="736"/>
+      <c r="AC131" s="736"/>
+      <c r="AD131" s="736"/>
+      <c r="AE131" s="736"/>
+      <c r="AF131" s="736"/>
+      <c r="AG131" s="736"/>
+      <c r="AH131" s="736"/>
+      <c r="AI131" s="736"/>
     </row>
     <row r="132" spans="1:35" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="711">
@@ -12853,11 +12889,6 @@
     <row r="305" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="B131:AI131"/>
     <mergeCell ref="AI3:AI4"/>
     <mergeCell ref="W3:W4"/>
@@ -12874,6 +12905,11 @@
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -12896,8 +12932,8 @@
   </sheetPr>
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="B19:G25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="13.8" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -12931,11 +12967,11 @@
       <c r="K1" s="287"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="767" t="s">
+      <c r="A2" s="748" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="767"/>
-      <c r="C2" s="767"/>
+      <c r="B2" s="748"/>
+      <c r="C2" s="748"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -12948,38 +12984,38 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="768" t="s">
+      <c r="A3" s="749" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="769" t="s">
+      <c r="B3" s="750" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="770"/>
-      <c r="D3" s="781" t="s">
+      <c r="C3" s="751"/>
+      <c r="D3" s="764" t="s">
         <v>148</v>
       </c>
-      <c r="E3" s="782"/>
-      <c r="F3" s="782"/>
-      <c r="G3" s="780" t="s">
+      <c r="E3" s="765"/>
+      <c r="F3" s="765"/>
+      <c r="G3" s="763" t="s">
         <v>917</v>
       </c>
-      <c r="H3" s="777" t="s">
+      <c r="H3" s="760" t="s">
         <v>357</v>
       </c>
-      <c r="I3" s="777" t="s">
+      <c r="I3" s="760" t="s">
         <v>918</v>
       </c>
-      <c r="J3" s="779" t="s">
+      <c r="J3" s="762" t="s">
         <v>455</v>
       </c>
-      <c r="K3" s="775" t="s">
+      <c r="K3" s="756" t="s">
         <v>867</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="768"/>
-      <c r="B4" s="771"/>
-      <c r="C4" s="772"/>
+      <c r="A4" s="749"/>
+      <c r="B4" s="752"/>
+      <c r="C4" s="753"/>
       <c r="D4" s="5" t="s">
         <v>159</v>
       </c>
@@ -12989,16 +13025,16 @@
       <c r="F4" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="G4" s="783"/>
-      <c r="H4" s="778"/>
-      <c r="I4" s="778"/>
-      <c r="J4" s="780"/>
-      <c r="K4" s="776"/>
+      <c r="G4" s="766"/>
+      <c r="H4" s="761"/>
+      <c r="I4" s="761"/>
+      <c r="J4" s="763"/>
+      <c r="K4" s="757"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="768"/>
-      <c r="B5" s="773"/>
-      <c r="C5" s="774"/>
+      <c r="A5" s="749"/>
+      <c r="B5" s="754"/>
+      <c r="C5" s="755"/>
       <c r="D5" s="7" t="s">
         <v>197</v>
       </c>
@@ -13028,7 +13064,7 @@
       <c r="A6" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="B6" s="766" t="s">
+      <c r="B6" s="758" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -13050,7 +13086,7 @@
       <c r="A7" s="4" t="s">
         <v>435</v>
       </c>
-      <c r="B7" s="766"/>
+      <c r="B7" s="758"/>
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
@@ -13070,7 +13106,7 @@
       <c r="A8" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="B8" s="748"/>
+      <c r="B8" s="759"/>
       <c r="C8" s="10" t="s">
         <v>4</v>
       </c>
@@ -13090,7 +13126,7 @@
       <c r="A9" s="4" t="s">
         <v>437</v>
       </c>
-      <c r="B9" s="748"/>
+      <c r="B9" s="759"/>
       <c r="C9" s="10" t="s">
         <v>5</v>
       </c>
@@ -13110,7 +13146,7 @@
       <c r="A10" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="B10" s="748"/>
+      <c r="B10" s="759"/>
       <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
@@ -13130,7 +13166,7 @@
       <c r="A11" s="4" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="748"/>
+      <c r="B11" s="759"/>
       <c r="C11" s="10" t="s">
         <v>904</v>
       </c>
@@ -13150,7 +13186,7 @@
       <c r="A12" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="B12" s="748"/>
+      <c r="B12" s="759"/>
       <c r="C12" s="11" t="s">
         <v>871</v>
       </c>
@@ -13170,7 +13206,7 @@
       <c r="A13" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="B13" s="748"/>
+      <c r="B13" s="759"/>
       <c r="C13" s="11" t="s">
         <v>872</v>
       </c>
@@ -13190,7 +13226,7 @@
       <c r="A14" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="B14" s="748" t="s">
+      <c r="B14" s="759" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="10" t="s">
@@ -13212,7 +13248,7 @@
       <c r="A15" s="4" t="s">
         <v>522</v>
       </c>
-      <c r="B15" s="748"/>
+      <c r="B15" s="759"/>
       <c r="C15" s="10" t="s">
         <v>9</v>
       </c>
@@ -13232,7 +13268,7 @@
       <c r="A16" s="4" t="s">
         <v>524</v>
       </c>
-      <c r="B16" s="748"/>
+      <c r="B16" s="759"/>
       <c r="C16" s="10" t="s">
         <v>10</v>
       </c>
@@ -13252,7 +13288,7 @@
       <c r="A17" s="4" t="s">
         <v>526</v>
       </c>
-      <c r="B17" s="749"/>
+      <c r="B17" s="767"/>
       <c r="C17" s="12" t="s">
         <v>11</v>
       </c>
@@ -13272,7 +13308,7 @@
       <c r="A18" s="4" t="s">
         <v>443</v>
       </c>
-      <c r="B18" s="749"/>
+      <c r="B18" s="767"/>
       <c r="C18" s="12" t="s">
         <v>872</v>
       </c>
@@ -13292,7 +13328,7 @@
       <c r="A19" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="B19" s="748" t="s">
+      <c r="B19" s="759" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -13314,7 +13350,7 @@
       <c r="A20" s="4" t="s">
         <v>445</v>
       </c>
-      <c r="B20" s="766"/>
+      <c r="B20" s="758"/>
       <c r="C20" s="9" t="s">
         <v>3</v>
       </c>
@@ -13334,7 +13370,7 @@
       <c r="A21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B21" s="748"/>
+      <c r="B21" s="759"/>
       <c r="C21" s="10" t="s">
         <v>4</v>
       </c>
@@ -13354,7 +13390,7 @@
       <c r="A22" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B22" s="748"/>
+      <c r="B22" s="759"/>
       <c r="C22" s="10" t="s">
         <v>5</v>
       </c>
@@ -13374,7 +13410,7 @@
       <c r="A23" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B23" s="748"/>
+      <c r="B23" s="759"/>
       <c r="C23" s="10" t="s">
         <v>6</v>
       </c>
@@ -13394,7 +13430,7 @@
       <c r="A24" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B24" s="748"/>
+      <c r="B24" s="759"/>
       <c r="C24" s="10" t="s">
         <v>904</v>
       </c>
@@ -13414,7 +13450,7 @@
       <c r="A25" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="748"/>
+      <c r="B25" s="759"/>
       <c r="C25" s="11" t="s">
         <v>871</v>
       </c>
@@ -13434,7 +13470,7 @@
       <c r="A26" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="748" t="s">
+      <c r="B26" s="759" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="10" t="s">
@@ -13456,7 +13492,7 @@
       <c r="A27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="748"/>
+      <c r="B27" s="759"/>
       <c r="C27" s="10" t="s">
         <v>9</v>
       </c>
@@ -13476,7 +13512,7 @@
       <c r="A28" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="748"/>
+      <c r="B28" s="759"/>
       <c r="C28" s="10" t="s">
         <v>10</v>
       </c>
@@ -13496,7 +13532,7 @@
       <c r="A29" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B29" s="748"/>
+      <c r="B29" s="759"/>
       <c r="C29" s="12" t="s">
         <v>11</v>
       </c>
@@ -13516,7 +13552,7 @@
       <c r="A30" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B30" s="755" t="s">
+      <c r="B30" s="773" t="s">
         <v>20</v>
       </c>
       <c r="C30" s="12" t="s">
@@ -13538,7 +13574,7 @@
       <c r="A31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="756"/>
+      <c r="B31" s="774"/>
       <c r="C31" s="12" t="s">
         <v>23</v>
       </c>
@@ -13558,7 +13594,7 @@
       <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="755" t="s">
+      <c r="B32" s="773" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -13580,7 +13616,7 @@
       <c r="A33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="757"/>
+      <c r="B33" s="775"/>
       <c r="C33" s="1" t="s">
         <v>167</v>
       </c>
@@ -13600,7 +13636,7 @@
       <c r="A34" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="757"/>
+      <c r="B34" s="775"/>
       <c r="C34" s="1" t="s">
         <v>947</v>
       </c>
@@ -13620,7 +13656,7 @@
       <c r="A35" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="757"/>
+      <c r="B35" s="775"/>
       <c r="C35" s="1" t="s">
         <v>169</v>
       </c>
@@ -13640,7 +13676,7 @@
       <c r="A36" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="756"/>
+      <c r="B36" s="774"/>
       <c r="C36" s="1" t="s">
         <v>170</v>
       </c>
@@ -13660,10 +13696,10 @@
       <c r="A37" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B37" s="753" t="s">
+      <c r="B37" s="771" t="s">
         <v>32</v>
       </c>
-      <c r="C37" s="754"/>
+      <c r="C37" s="772"/>
       <c r="D37" s="289"/>
       <c r="E37" s="289"/>
       <c r="F37" s="289"/>
@@ -13724,13 +13760,13 @@
         <v>38</v>
       </c>
       <c r="C40" s="719"/>
-      <c r="D40" s="758"/>
-      <c r="E40" s="759"/>
-      <c r="F40" s="759"/>
-      <c r="G40" s="759"/>
-      <c r="H40" s="759"/>
-      <c r="I40" s="759"/>
-      <c r="J40" s="760"/>
+      <c r="D40" s="776"/>
+      <c r="E40" s="777"/>
+      <c r="F40" s="777"/>
+      <c r="G40" s="777"/>
+      <c r="H40" s="777"/>
+      <c r="I40" s="777"/>
+      <c r="J40" s="778"/>
       <c r="K40" s="289"/>
       <c r="S40" s="14">
         <v>1021700</v>
@@ -13740,17 +13776,17 @@
       <c r="A41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="761" t="s">
+      <c r="B41" s="779" t="s">
         <v>946</v>
       </c>
-      <c r="C41" s="762"/>
-      <c r="D41" s="758"/>
-      <c r="E41" s="759"/>
-      <c r="F41" s="759"/>
-      <c r="G41" s="759"/>
-      <c r="H41" s="759"/>
-      <c r="I41" s="759"/>
-      <c r="J41" s="760"/>
+      <c r="C41" s="780"/>
+      <c r="D41" s="776"/>
+      <c r="E41" s="777"/>
+      <c r="F41" s="777"/>
+      <c r="G41" s="777"/>
+      <c r="H41" s="777"/>
+      <c r="I41" s="777"/>
+      <c r="J41" s="778"/>
       <c r="K41" s="289"/>
       <c r="S41" s="14">
         <v>840135</v>
@@ -13764,16 +13800,16 @@
         <v>42</v>
       </c>
       <c r="C42" s="719"/>
-      <c r="D42" s="763" t="e">
+      <c r="D42" s="781" t="e">
         <f>D40/H37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E42" s="764"/>
-      <c r="F42" s="764"/>
-      <c r="G42" s="764"/>
-      <c r="H42" s="764"/>
-      <c r="I42" s="764"/>
-      <c r="J42" s="765"/>
+      <c r="E42" s="782"/>
+      <c r="F42" s="782"/>
+      <c r="G42" s="782"/>
+      <c r="H42" s="782"/>
+      <c r="I42" s="782"/>
+      <c r="J42" s="783"/>
       <c r="K42" s="289"/>
       <c r="S42" s="14">
         <v>662083</v>
@@ -13787,16 +13823,16 @@
         <v>44</v>
       </c>
       <c r="C43" s="719"/>
-      <c r="D43" s="763" t="e">
+      <c r="D43" s="781" t="e">
         <f>D41/H37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E43" s="764"/>
-      <c r="F43" s="764"/>
-      <c r="G43" s="764"/>
-      <c r="H43" s="764"/>
-      <c r="I43" s="764"/>
-      <c r="J43" s="765"/>
+      <c r="E43" s="782"/>
+      <c r="F43" s="782"/>
+      <c r="G43" s="782"/>
+      <c r="H43" s="782"/>
+      <c r="I43" s="782"/>
+      <c r="J43" s="783"/>
       <c r="K43" s="289"/>
       <c r="S43" s="14">
         <v>508167</v>
@@ -13810,13 +13846,13 @@
         <v>46</v>
       </c>
       <c r="C44" s="719"/>
-      <c r="D44" s="750"/>
-      <c r="E44" s="751"/>
-      <c r="F44" s="751"/>
-      <c r="G44" s="751"/>
-      <c r="H44" s="751"/>
-      <c r="I44" s="751"/>
-      <c r="J44" s="752"/>
+      <c r="D44" s="768"/>
+      <c r="E44" s="769"/>
+      <c r="F44" s="769"/>
+      <c r="G44" s="769"/>
+      <c r="H44" s="769"/>
+      <c r="I44" s="769"/>
+      <c r="J44" s="770"/>
       <c r="K44" s="289"/>
       <c r="S44" s="14">
         <v>394315</v>
@@ -13866,10 +13902,10 @@
       <c r="A47" s="4" t="s">
         <v>944</v>
       </c>
-      <c r="B47" s="753" t="s">
+      <c r="B47" s="771" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="754"/>
+      <c r="C47" s="772"/>
       <c r="D47" s="289">
         <v>0</v>
       </c>
@@ -13950,16 +13986,6 @@
     <row r="80" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="B6:B13"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
     <mergeCell ref="B14:B18"/>
     <mergeCell ref="D44:J44"/>
     <mergeCell ref="B47:C47"/>
@@ -13973,6 +13999,16 @@
     <mergeCell ref="D42:J42"/>
     <mergeCell ref="D43:J43"/>
     <mergeCell ref="B19:B25"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -13986,6 +14022,67 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.8984375" customWidth="1"/>
+    <col min="4" max="4" width="23.8984375" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="784" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B1" s="784" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C1">
+        <f>SUBTOTAL(3,C2,C30000)</f>
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <f>SUBTOTAL(9,D2,D30000)</f>
+        <v>0</v>
+      </c>
+      <c r="E1" s="784" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F1" s="784" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>1068</v>
+      </c>
+      <c r="I2" s="784" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="H4" s="784" t="s">
+        <v>1070</v>
+      </c>
+      <c r="I4" s="784" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:FI485"/>
